--- a/Google sheet and API Link/GoogleSheetAndAPI.xlsx
+++ b/Google sheet and API Link/GoogleSheetAndAPI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\RCEC_AI_SOCD\2020_online_training\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Code\Hi_ASAP\Google sheet and API Link\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -379,10 +379,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://script.google.com/macros/s/AKfycbya9Z731VzBOqFqClkYXqlWZ7OuIhOD2oDIwH7Q/exec</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://script.google.com/macros/s/AKfycbwAKvgKj84Ra4_E4x_X4nu3vFltLE0krPSh71kp/exec</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -464,6 +460,10 @@
   </si>
   <si>
     <t>Malaysia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://script.google.com/macros/s/AKfycbzUd67RabZKyYtWNGsehlEm2RL7HocqD-J3ds1CLTrJClB7eAs/exec</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -680,7 +680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,6 +761,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1051,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1066,7 @@
     <col min="4" max="4" width="18.75" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="102.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="85.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.25" style="3" customWidth="1"/>
     <col min="8" max="16384" width="21.625" style="3"/>
   </cols>
   <sheetData>
@@ -1075,7 +1078,7 @@
         <v>63</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>0</v>
@@ -1084,15 +1087,15 @@
         <v>1</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>5</v>
@@ -1217,16 +1220,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>79</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="11" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>22</v>
@@ -1288,7 +1291,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>25</v>
@@ -1483,8 +1486,8 @@
       <c r="F20" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>104</v>
+      <c r="G20" s="27" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1526,7 +1529,7 @@
         <v>90</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1591,13 +1594,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="26"/>
